--- a/PHPWeb/EMPLOYEv1/employe.xlsx
+++ b/PHPWeb/EMPLOYEv1/employe.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20372"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repo_local\Kesary_DWWM\Kesary_DWWM\PHPWeb\EMPLOYEv1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\59011-15-11\Kesary_DWWM\PHPWeb\EMPLOYEv1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5AA3005E-59D5-44B7-B953-3C7630113D22}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Agence" sheetId="1" r:id="rId1"/>
     <sheet name="Employe" sheetId="2" r:id="rId2"/>
+    <sheet name="Enfant" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="58">
   <si>
     <t>AGENCE</t>
   </si>
@@ -194,6 +194,12 @@
   </si>
   <si>
     <t>Informatique</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Entants</t>
+  </si>
+  <si>
+    <t>age</t>
   </si>
 </sst>
 </file>
@@ -314,10 +320,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -336,8 +344,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -658,25 +667,25 @@
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.77734375" customWidth="1"/>
-    <col min="3" max="3" width="21.44140625" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
-    <col min="6" max="6" width="22.44140625" customWidth="1"/>
+    <col min="6" max="6" width="22.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="5"/>
-    </row>
-    <row r="2" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="7"/>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -696,7 +705,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -716,7 +725,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -749,31 +758,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="17.21875" customWidth="1"/>
-    <col min="7" max="7" width="19.109375" customWidth="1"/>
-    <col min="8" max="8" width="9.44140625" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" customWidth="1"/>
+    <col min="7" max="7" width="19.140625" customWidth="1"/>
+    <col min="8" max="8" width="9.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="8"/>
-    </row>
-    <row r="2" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="10"/>
+    </row>
+    <row r="2" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -802,7 +811,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -812,7 +821,7 @@
       <c r="C3" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="3">
         <v>43419</v>
       </c>
       <c r="E3" t="s">
@@ -831,7 +840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -841,7 +850,7 @@
       <c r="C4" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="3">
         <v>40318</v>
       </c>
       <c r="E4" t="s">
@@ -857,7 +866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -867,7 +876,7 @@
       <c r="C5" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="3">
         <v>37144</v>
       </c>
       <c r="E5" t="s">
@@ -886,17 +895,17 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="3">
         <v>2001</v>
       </c>
       <c r="E6" t="s">
@@ -912,17 +921,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="3">
         <v>43570</v>
       </c>
       <c r="E7" t="s">
@@ -938,17 +947,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="3">
         <v>40218</v>
       </c>
       <c r="E8" t="s">
@@ -964,17 +973,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9" t="s">
         <v>44</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="3">
         <v>42129</v>
       </c>
       <c r="E9" t="s">
@@ -993,17 +1002,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10" t="s">
         <v>48</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="3">
         <v>39741</v>
       </c>
       <c r="E10" t="s">
@@ -1019,17 +1028,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11" t="s">
         <v>52</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="3">
         <v>2021</v>
       </c>
       <c r="E11" t="s">
@@ -1054,4 +1063,48 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>